--- a/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
+++ b/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\Poteking_Project\Poteking\Assets\GameResource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5F0C8-020E-4FBE-9C9D-951CCA144320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C34ED-5FB2-49E0-916E-346621BD12A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34530" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,9 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1번 게임 상태의 NPC 3번 대화</t>
-  </si>
-  <si>
     <t>1번 게임 상태의 NPC 4번 대화</t>
   </si>
   <si>
@@ -61,29 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2번 게임 상태의 NPC 2번 대화</t>
-  </si>
-  <si>
-    <t>2번 게임 상태의 NPC 3번 대화</t>
-  </si>
-  <si>
-    <t>2번 게임 상태의 NPC 4번 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3번 게임 상태의 NPC 1번 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3번 게임 상태의 NPC 2번 대화</t>
-  </si>
-  <si>
-    <t>3번 게임 상태의 NPC 3번 대화</t>
-  </si>
-  <si>
-    <t>3번 게임 상태의 NPC 4번 대화</t>
-  </si>
-  <si>
     <t>choice1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,7 +70,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>character</t>
+    <t>npcname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc2</t>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rightface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽이있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음으로 진행 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음으로 진행 테스트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,16 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,325 +442,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="55.125" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
+++ b/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\Poteking_Project\Poteking\Assets\GameResource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C34ED-5FB2-49E0-916E-346621BD12A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB678FD-28B5-47A2-90ED-5835DA7E135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34530" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,42 @@
   <si>
     <t>다음으로 진행 테스트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice1text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice2text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지2</t>
+  </si>
+  <si>
+    <t>선택지3</t>
+  </si>
+  <si>
+    <t>선택지4</t>
+  </si>
+  <si>
+    <t>선택지5</t>
+  </si>
+  <si>
+    <t>선택지6</t>
+  </si>
+  <si>
+    <t>선택지7</t>
+  </si>
+  <si>
+    <t>선택지8</t>
+  </si>
+  <si>
+    <t>선택지9</t>
   </si>
 </sst>
 </file>
@@ -442,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,13 +493,14 @@
     <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,16 +526,22 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -523,17 +566,23 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -558,17 +607,23 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -593,17 +648,23 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -628,17 +689,23 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>9</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -663,17 +730,23 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>8</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -698,17 +771,23 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -733,17 +812,23 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -768,17 +853,23 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -803,13 +894,19 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
+++ b/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\Poteking_Project\Poteking\Assets\GameResource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB678FD-28B5-47A2-90ED-5835DA7E135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5885037-0CCF-4EDE-93C5-5B9EAC4E7DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34530" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1번 게임 상태의 NPC 4번 대화</t>
-  </si>
-  <si>
     <t>2번 게임 상태의 NPC 1번 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +148,10 @@
   </si>
   <si>
     <t>선택지9</t>
+  </si>
+  <si>
+    <t>4번 게임 상태의 NPC 1번 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,7 +482,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -520,25 +521,25 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -552,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -567,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -593,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -608,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -634,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -675,10 +676,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -690,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1">
         <v>4</v>
@@ -716,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -731,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -757,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -772,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -798,10 +799,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -813,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -833,19 +834,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -854,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -880,10 +881,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -895,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>

--- a/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
+++ b/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\Poteking_Project\Poteking\Assets\GameResource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5885037-0CCF-4EDE-93C5-5B9EAC4E7DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3EEDF3-CC8F-41D4-A028-B4F80C64D3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,31 +126,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>선택지5</t>
+  </si>
+  <si>
+    <t>선택지6</t>
+  </si>
+  <si>
+    <t>선택지7</t>
+  </si>
+  <si>
+    <t>선택지8</t>
+  </si>
+  <si>
+    <t>선택지9</t>
+  </si>
+  <si>
+    <t>4번 게임 상태의 NPC 1번 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>선택지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>선택지3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지11</t>
+  </si>
+  <si>
+    <t>선택지13</t>
+  </si>
+  <si>
+    <t>선택지15</t>
+  </si>
+  <si>
+    <t>선택지17</t>
   </si>
   <si>
     <t>선택지4</t>
-  </si>
-  <si>
-    <t>선택지5</t>
-  </si>
-  <si>
-    <t>선택지6</t>
-  </si>
-  <si>
-    <t>선택지7</t>
-  </si>
-  <si>
-    <t>선택지8</t>
-  </si>
-  <si>
-    <t>선택지9</t>
-  </si>
-  <si>
-    <t>4번 게임 상태의 NPC 1번 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지10</t>
+  </si>
+  <si>
+    <t>선택지12</t>
+  </si>
+  <si>
+    <t>선택지14</t>
+  </si>
+  <si>
+    <t>선택지16</t>
+  </si>
+  <si>
+    <t>선택지18</t>
+  </si>
+  <si>
+    <t>midimage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,10 +532,11 @@
     <col min="11" max="11" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +576,11 @@
       <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -571,7 +609,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -582,8 +620,11 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -609,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -623,8 +664,11 @@
       <c r="M3" s="1">
         <v>0</v>
       </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -641,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -650,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
@@ -664,8 +708,11 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -694,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1">
         <v>4</v>
@@ -705,8 +752,11 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -732,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -746,8 +796,11 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -773,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -787,8 +840,11 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -814,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -828,8 +884,11 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -843,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -855,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -869,8 +928,11 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -896,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -908,6 +970,9 @@
         <v>1</v>
       </c>
       <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
+++ b/Poteking/Assets/GameResource/Excel/DialogDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\Poteking_Project\Poteking\Assets\GameResource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF88891-F55F-4D01-8A88-8F37DFF6BDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AFADC2-53DC-401B-B3C2-5CF37E115367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -782,19 +782,13 @@
         <v>19</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>66</v>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -826,16 +820,20 @@
         <v>21</v>
       </c>
       <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
